--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Icam2-Itgam.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Icam2-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>49.9323339848569</v>
+        <v>50.17403933333333</v>
       </c>
       <c r="H2">
-        <v>49.9323339848569</v>
+        <v>150.522118</v>
       </c>
       <c r="I2">
-        <v>0.8160399324321872</v>
+        <v>0.7978131386685359</v>
       </c>
       <c r="J2">
-        <v>0.8160399324321872</v>
+        <v>0.797813138668536</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>146.433606223121</v>
+        <v>0.142723</v>
       </c>
       <c r="N2">
-        <v>146.433606223121</v>
+        <v>0.428169</v>
       </c>
       <c r="O2">
-        <v>0.5086671177303524</v>
+        <v>0.000470790275435748</v>
       </c>
       <c r="P2">
-        <v>0.5086671177303524</v>
+        <v>0.0004707902754357479</v>
       </c>
       <c r="Q2">
-        <v>7311.771732539897</v>
+        <v>7.160989415771335</v>
       </c>
       <c r="R2">
-        <v>7311.771732539897</v>
+        <v>64.448904741942</v>
       </c>
       <c r="S2">
-        <v>0.4150926803831522</v>
+        <v>0.0003756026673000186</v>
       </c>
       <c r="T2">
-        <v>0.4150926803831522</v>
+        <v>0.0003756026673000186</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>49.9323339848569</v>
+        <v>50.17403933333333</v>
       </c>
       <c r="H3">
-        <v>49.9323339848569</v>
+        <v>150.522118</v>
       </c>
       <c r="I3">
-        <v>0.8160399324321872</v>
+        <v>0.7978131386685359</v>
       </c>
       <c r="J3">
-        <v>0.8160399324321872</v>
+        <v>0.797813138668536</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>141.443477077448</v>
+        <v>148.0881626666667</v>
       </c>
       <c r="N3">
-        <v>141.443477077448</v>
+        <v>444.264488</v>
       </c>
       <c r="O3">
-        <v>0.4913328822696476</v>
+        <v>0.4884879584272602</v>
       </c>
       <c r="P3">
-        <v>0.4913328822696476</v>
+        <v>0.4884879584272601</v>
       </c>
       <c r="Q3">
-        <v>7062.602937410585</v>
+        <v>7430.181298438399</v>
       </c>
       <c r="R3">
-        <v>7062.602937410585</v>
+        <v>66871.63168594558</v>
       </c>
       <c r="S3">
-        <v>0.400947252049035</v>
+        <v>0.3897221113146377</v>
       </c>
       <c r="T3">
-        <v>0.400947252049035</v>
+        <v>0.3897221113146377</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.4777736733186</v>
+        <v>50.17403933333333</v>
       </c>
       <c r="H4">
-        <v>1.4777736733186</v>
+        <v>150.522118</v>
       </c>
       <c r="I4">
-        <v>0.02415113078612945</v>
+        <v>0.7978131386685359</v>
       </c>
       <c r="J4">
-        <v>0.02415113078612945</v>
+        <v>0.797813138668536</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>146.433606223121</v>
+        <v>154.9253336666667</v>
       </c>
       <c r="N4">
-        <v>146.433606223121</v>
+        <v>464.776001</v>
       </c>
       <c r="O4">
-        <v>0.5086671177303524</v>
+        <v>0.5110412512973043</v>
       </c>
       <c r="P4">
-        <v>0.5086671177303524</v>
+        <v>0.5110412512973042</v>
       </c>
       <c r="Q4">
-        <v>216.3957281656309</v>
+        <v>7773.229785121124</v>
       </c>
       <c r="R4">
-        <v>216.3957281656309</v>
+        <v>69959.06806609011</v>
       </c>
       <c r="S4">
-        <v>0.01228488608690925</v>
+        <v>0.4077154246865983</v>
       </c>
       <c r="T4">
-        <v>0.01228488608690925</v>
+        <v>0.4077154246865983</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.4777736733186</v>
+        <v>1.656685</v>
       </c>
       <c r="H5">
-        <v>1.4777736733186</v>
+        <v>4.970055</v>
       </c>
       <c r="I5">
-        <v>0.02415113078612945</v>
+        <v>0.02634280749959451</v>
       </c>
       <c r="J5">
-        <v>0.02415113078612945</v>
+        <v>0.02634280749959451</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>141.443477077448</v>
+        <v>0.142723</v>
       </c>
       <c r="N5">
-        <v>141.443477077448</v>
+        <v>0.428169</v>
       </c>
       <c r="O5">
-        <v>0.4913328822696476</v>
+        <v>0.000470790275435748</v>
       </c>
       <c r="P5">
-        <v>0.4913328822696476</v>
+        <v>0.0004707902754357479</v>
       </c>
       <c r="Q5">
-        <v>209.0214466876955</v>
+        <v>0.2364470532550001</v>
       </c>
       <c r="R5">
-        <v>209.0214466876955</v>
+        <v>2.128023479295</v>
       </c>
       <c r="S5">
-        <v>0.0118662446992202</v>
+        <v>1.240193759848499E-05</v>
       </c>
       <c r="T5">
-        <v>0.0118662446992202</v>
+        <v>1.240193759848499E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,57 +782,57 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.23787526426819</v>
+        <v>1.656685</v>
       </c>
       <c r="H6">
-        <v>4.23787526426819</v>
+        <v>4.970055</v>
       </c>
       <c r="I6">
-        <v>0.06925923882024523</v>
+        <v>0.02634280749959451</v>
       </c>
       <c r="J6">
-        <v>0.06925923882024523</v>
+        <v>0.02634280749959451</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>146.433606223121</v>
+        <v>148.0881626666667</v>
       </c>
       <c r="N6">
-        <v>146.433606223121</v>
+        <v>444.264488</v>
       </c>
       <c r="O6">
-        <v>0.5086671177303524</v>
+        <v>0.4884879584272602</v>
       </c>
       <c r="P6">
-        <v>0.5086671177303524</v>
+        <v>0.4884879584272601</v>
       </c>
       <c r="Q6">
-        <v>620.567357670553</v>
+        <v>245.3354377674267</v>
       </c>
       <c r="R6">
-        <v>620.567357670553</v>
+        <v>2208.01893990684</v>
       </c>
       <c r="S6">
-        <v>0.03522989738689228</v>
+        <v>0.01286814425471924</v>
       </c>
       <c r="T6">
-        <v>0.03522989738689228</v>
+        <v>0.01286814425471924</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.23787526426819</v>
+        <v>1.656685</v>
       </c>
       <c r="H7">
-        <v>4.23787526426819</v>
+        <v>4.970055</v>
       </c>
       <c r="I7">
-        <v>0.06925923882024523</v>
+        <v>0.02634280749959451</v>
       </c>
       <c r="J7">
-        <v>0.06925923882024523</v>
+        <v>0.02634280749959451</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>141.443477077448</v>
+        <v>154.9253336666667</v>
       </c>
       <c r="N7">
-        <v>141.443477077448</v>
+        <v>464.776001</v>
       </c>
       <c r="O7">
-        <v>0.4913328822696476</v>
+        <v>0.5110412512973043</v>
       </c>
       <c r="P7">
-        <v>0.4913328822696476</v>
+        <v>0.5110412512973042</v>
       </c>
       <c r="Q7">
-        <v>599.4198127986016</v>
+        <v>256.6624764055617</v>
       </c>
       <c r="R7">
-        <v>599.4198127986016</v>
+        <v>2309.962287650055</v>
       </c>
       <c r="S7">
-        <v>0.03402934143335296</v>
+        <v>0.01346226130727679</v>
       </c>
       <c r="T7">
-        <v>0.03402934143335296</v>
+        <v>0.01346226130727679</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.89843949724443</v>
+        <v>4.722579</v>
       </c>
       <c r="H8">
-        <v>4.89843949724443</v>
+        <v>14.167737</v>
       </c>
       <c r="I8">
-        <v>0.08005478449228469</v>
+        <v>0.07509332763840293</v>
       </c>
       <c r="J8">
-        <v>0.08005478449228469</v>
+        <v>0.07509332763840293</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>146.433606223121</v>
+        <v>0.142723</v>
       </c>
       <c r="N8">
-        <v>146.433606223121</v>
+        <v>0.428169</v>
       </c>
       <c r="O8">
-        <v>0.5086671177303524</v>
+        <v>0.000470790275435748</v>
       </c>
       <c r="P8">
-        <v>0.5086671177303524</v>
+        <v>0.0004707902754357479</v>
       </c>
       <c r="Q8">
-        <v>717.2961604472737</v>
+        <v>0.674020642617</v>
       </c>
       <c r="R8">
-        <v>717.2961604472737</v>
+        <v>6.066185783553</v>
       </c>
       <c r="S8">
-        <v>0.04072123648821497</v>
+        <v>3.535320840227058E-05</v>
       </c>
       <c r="T8">
-        <v>0.04072123648821497</v>
+        <v>3.535320840227058E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.89843949724443</v>
+        <v>4.722579</v>
       </c>
       <c r="H9">
-        <v>4.89843949724443</v>
+        <v>14.167737</v>
       </c>
       <c r="I9">
-        <v>0.08005478449228469</v>
+        <v>0.07509332763840293</v>
       </c>
       <c r="J9">
-        <v>0.08005478449228469</v>
+        <v>0.07509332763840293</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>141.443477077448</v>
+        <v>148.0881626666667</v>
       </c>
       <c r="N9">
-        <v>141.443477077448</v>
+        <v>444.264488</v>
       </c>
       <c r="O9">
-        <v>0.4913328822696476</v>
+        <v>0.4884879584272602</v>
       </c>
       <c r="P9">
-        <v>0.4913328822696476</v>
+        <v>0.4884879584272601</v>
       </c>
       <c r="Q9">
-        <v>692.8523147437585</v>
+        <v>699.358047158184</v>
       </c>
       <c r="R9">
-        <v>692.8523147437585</v>
+        <v>6294.222424423656</v>
       </c>
       <c r="S9">
-        <v>0.03933354800406973</v>
+        <v>0.03668218630959279</v>
       </c>
       <c r="T9">
-        <v>0.03933354800406973</v>
+        <v>0.03668218630959279</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.642168971954678</v>
+        <v>4.722579</v>
       </c>
       <c r="H10">
-        <v>0.642168971954678</v>
+        <v>14.167737</v>
       </c>
       <c r="I10">
-        <v>0.01049491346915344</v>
+        <v>0.07509332763840293</v>
       </c>
       <c r="J10">
-        <v>0.01049491346915344</v>
+        <v>0.07509332763840293</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>146.433606223121</v>
+        <v>154.9253336666667</v>
       </c>
       <c r="N10">
-        <v>146.433606223121</v>
+        <v>464.776001</v>
       </c>
       <c r="O10">
-        <v>0.5086671177303524</v>
+        <v>0.5110412512973043</v>
       </c>
       <c r="P10">
-        <v>0.5086671177303524</v>
+        <v>0.5110412512973042</v>
       </c>
       <c r="Q10">
-        <v>94.03511836791775</v>
+        <v>731.6471273421929</v>
       </c>
       <c r="R10">
-        <v>94.03511836791775</v>
+        <v>6584.824146079736</v>
       </c>
       <c r="S10">
-        <v>0.005338417385183733</v>
+        <v>0.03837578812040787</v>
       </c>
       <c r="T10">
-        <v>0.005338417385183733</v>
+        <v>0.03837578812040787</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.507876</v>
+      </c>
+      <c r="H11">
+        <v>16.523628</v>
+      </c>
+      <c r="I11">
+        <v>0.08758026854811665</v>
+      </c>
+      <c r="J11">
+        <v>0.08758026854811667</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.142723</v>
+      </c>
+      <c r="N11">
+        <v>0.428169</v>
+      </c>
+      <c r="O11">
+        <v>0.000470790275435748</v>
+      </c>
+      <c r="P11">
+        <v>0.0004707902754357479</v>
+      </c>
+      <c r="Q11">
+        <v>0.7861005863480002</v>
+      </c>
+      <c r="R11">
+        <v>7.074905277132001</v>
+      </c>
+      <c r="S11">
+        <v>4.123193875250462E-05</v>
+      </c>
+      <c r="T11">
+        <v>4.123193875250461E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.642168971954678</v>
-      </c>
-      <c r="H11">
-        <v>0.642168971954678</v>
-      </c>
-      <c r="I11">
-        <v>0.01049491346915344</v>
-      </c>
-      <c r="J11">
-        <v>0.01049491346915344</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>141.443477077448</v>
-      </c>
-      <c r="N11">
-        <v>141.443477077448</v>
-      </c>
-      <c r="O11">
-        <v>0.4913328822696476</v>
-      </c>
-      <c r="P11">
-        <v>0.4913328822696476</v>
-      </c>
-      <c r="Q11">
-        <v>90.83061226451984</v>
-      </c>
-      <c r="R11">
-        <v>90.83061226451984</v>
-      </c>
-      <c r="S11">
-        <v>0.005156496083969704</v>
-      </c>
-      <c r="T11">
-        <v>0.005156496083969704</v>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.507876</v>
+      </c>
+      <c r="H12">
+        <v>16.523628</v>
+      </c>
+      <c r="I12">
+        <v>0.08758026854811665</v>
+      </c>
+      <c r="J12">
+        <v>0.08758026854811667</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>148.0881626666667</v>
+      </c>
+      <c r="N12">
+        <v>444.264488</v>
+      </c>
+      <c r="O12">
+        <v>0.4884879584272602</v>
+      </c>
+      <c r="P12">
+        <v>0.4884879584272601</v>
+      </c>
+      <c r="Q12">
+        <v>815.6512370358295</v>
+      </c>
+      <c r="R12">
+        <v>7340.861133322465</v>
+      </c>
+      <c r="S12">
+        <v>0.04278190658158069</v>
+      </c>
+      <c r="T12">
+        <v>0.04278190658158069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.507876</v>
+      </c>
+      <c r="H13">
+        <v>16.523628</v>
+      </c>
+      <c r="I13">
+        <v>0.08758026854811665</v>
+      </c>
+      <c r="J13">
+        <v>0.08758026854811667</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>154.9253336666667</v>
+      </c>
+      <c r="N13">
+        <v>464.776001</v>
+      </c>
+      <c r="O13">
+        <v>0.5110412512973043</v>
+      </c>
+      <c r="P13">
+        <v>0.5110412512973042</v>
+      </c>
+      <c r="Q13">
+        <v>853.3095270946253</v>
+      </c>
+      <c r="R13">
+        <v>7679.785743851628</v>
+      </c>
+      <c r="S13">
+        <v>0.04475713002778348</v>
+      </c>
+      <c r="T13">
+        <v>0.04475713002778347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.828283</v>
+      </c>
+      <c r="H14">
+        <v>2.484849</v>
+      </c>
+      <c r="I14">
+        <v>0.01317045764534999</v>
+      </c>
+      <c r="J14">
+        <v>0.01317045764534999</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.142723</v>
+      </c>
+      <c r="N14">
+        <v>0.428169</v>
+      </c>
+      <c r="O14">
+        <v>0.000470790275435748</v>
+      </c>
+      <c r="P14">
+        <v>0.0004707902754357479</v>
+      </c>
+      <c r="Q14">
+        <v>0.118215034609</v>
+      </c>
+      <c r="R14">
+        <v>1.063935311481</v>
+      </c>
+      <c r="S14">
+        <v>6.200523382469174E-06</v>
+      </c>
+      <c r="T14">
+        <v>6.200523382469172E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.828283</v>
+      </c>
+      <c r="H15">
+        <v>2.484849</v>
+      </c>
+      <c r="I15">
+        <v>0.01317045764534999</v>
+      </c>
+      <c r="J15">
+        <v>0.01317045764534999</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>148.0881626666667</v>
+      </c>
+      <c r="N15">
+        <v>444.264488</v>
+      </c>
+      <c r="O15">
+        <v>0.4884879584272602</v>
+      </c>
+      <c r="P15">
+        <v>0.4884879584272601</v>
+      </c>
+      <c r="Q15">
+        <v>122.6589076380347</v>
+      </c>
+      <c r="R15">
+        <v>1103.930168742312</v>
+      </c>
+      <c r="S15">
+        <v>0.006433609966729715</v>
+      </c>
+      <c r="T15">
+        <v>0.006433609966729714</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.828283</v>
+      </c>
+      <c r="H16">
+        <v>2.484849</v>
+      </c>
+      <c r="I16">
+        <v>0.01317045764534999</v>
+      </c>
+      <c r="J16">
+        <v>0.01317045764534999</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>154.9253336666667</v>
+      </c>
+      <c r="N16">
+        <v>464.776001</v>
+      </c>
+      <c r="O16">
+        <v>0.5110412512973043</v>
+      </c>
+      <c r="P16">
+        <v>0.5110412512973042</v>
+      </c>
+      <c r="Q16">
+        <v>128.3220201454277</v>
+      </c>
+      <c r="R16">
+        <v>1154.898181308849</v>
+      </c>
+      <c r="S16">
+        <v>0.006730647155237805</v>
+      </c>
+      <c r="T16">
+        <v>0.006730647155237804</v>
       </c>
     </row>
   </sheetData>
